--- a/biology/Biochimie/EC_3.1/EC_3.1.xlsx
+++ b/biology/Biochimie/EC_3.1/EC_3.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe EC3.1 est un groupe d'hydrolases rassemblant les estérasesydrolase 3.1.1.23, c'est-à-dire les enzymes catalysant la réaction générale :
 R-O-R' + H2O  
@@ -531,7 +543,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">EC 3.1.1 : Hydrolases spécifiques des esters carboxyliques
+          <t>EC 3.1.1 : Hydrolases spécifiques des esters carboxyliques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.1
 EC 3.1.1.1 : carboxylestérase
 EC 3.1.1.2 : arylestérase
@@ -616,7 +634,43 @@
 EC 3.1.1.81 : quorum-quenching N-acyl-homoserine lactonase
 EC 3.1.1.82 : phéophorbidase
 EC 3.1.1.83 : monoterpène ε-lactone-hydrolase
-EC 3.1.2 : Hydrolases spécifiques des thioesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EC 3.1.2 : Hydrolases spécifiques des thioesters</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.2
 EC 3.1.2.1 : acétyl-CoA-hydrolase
 EC 3.1.2.2 : palmitoyl-CoA-hydrolase
@@ -645,7 +699,43 @@
 EC 3.1.2.25 : phénylacétyl-CoA-hydrolase
 EC 3.1.2.26 : acide biliaire-CoA-hydrolase
 EC 3.1.2.27 : choloyl-CoA-hydrolase
-EC 3.1.3 : Hydrolases spécifiques des liaisons monoester-phosphoriques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC 3.1.3 : Hydrolases spécifiques des liaisons monoester-phosphoriques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.3
 EC 3.1.3.1 : phosphatase alcaline
 EC 3.1.3.2 : phosphatase acide
@@ -726,7 +816,43 @@
 EC 3.1.3.77 : aciréductone-synthase
 EC 3.1.3.78 : phosphatidylinositol-4,5-disphosphate 4-phosphatase
 EC 3.1.3.79 : mannosylfructose-phosphate phosphatase
-EC 3.1.4 : Hydrolases spécifiques des liaisons diester-phosphoriques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC 3.1.4 : Hydrolases spécifiques des liaisons diester-phosphoriques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.4
 EC 3.1.4.1 : phosphodiestérase I
 EC 3.1.4.2 : glycérophosphocholine-phosphodiestérase
@@ -781,10 +907,82 @@
 EC 3.1.4.51 : glucose-1-phospho-D-mannosylglycoprotéine-phosphodiestérase
 EC 3.1.4.52 : GMPc-phosphodiestérase spécifique
 EC 3.1.4.53 : 3',5'-AMPc-phosphodiestérase
-EC 3.1.5 : Hydrolases spécifiques des liaisons monoester-triphosphoriques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EC 3.1.5 : Hydrolases spécifiques des liaisons monoester-triphosphoriques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.5
 EC 3.1.5.1 : désoxyguanosine-triphosphatase
-EC 3.1.6 : Hydrolases spécifiques des liaisons ester-sulfuriques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EC 3.1.6 : Hydrolases spécifiques des liaisons ester-sulfuriques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.6
 EC 3.1.6.1 : arylsulfatase
 EC 3.1.6.2 : stéryl-sulfatase
@@ -804,18 +1002,126 @@
 EC 3.1.6.16 : monométhyl-sulfatase
 EC 3.1.6.17 : D-lactate-2-sulfatase
 EC 3.1.6.18 : glucuronate-2-sulfatase
-EC 3.1.7 : Hydrolases spécifiques des liaisons monoester-diphosphoriques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>EC 3.1.7 : Hydrolases spécifiques des liaisons monoester-diphosphoriques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.7
 EC 3.1.7.1 : prényl-diphosphatase
 EC 3.1.7.2 : guanosine-3',5'-bis(diphosphate) 3'-diphosphatase
 EC 3.1.7.3 : monoterpényl-diphosphatase
 EC 3.1.7.4 : sclaréol-cyclase
 EC 3.1.7.5 : géranylgéranyl-diphosphate-diphosphatase
-EC 3.1.8 : Hydrolases spécifiques des liaisons triester-phosphoriques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>EC 3.1.8 : Hydrolases spécifiques des liaisons triester-phosphoriques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.8
 EC 3.1.8.1 : aryldialkylphosphatase
 EC 3.1.8.2 : diisopropyl-fluorophosphatase
-EC 3.1.11 : Exodésoxyribonucléases productrices de 5'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>EC 3.1.11 : Exodésoxyribonucléases productrices de 5'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.11
 EC 3.1.11.1 : exodésoxyribonucléase I
 EC 3.1.11.2 : exodésoxyribonucléase III
@@ -823,23 +1129,203 @@
 EC 3.1.11.4 : exodésoxyribonucléase (induite pas le phage SP3)
 EC 3.1.11.5 : exodésoxyribonucléase V
 EC 3.1.11.6 : exodésoxyribonucléase VII
-EC 3.1.13 : Exoribonucléases productrices de 5'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>EC 3.1.13 : Exoribonucléases productrices de 5'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.13
 EC 3.1.13.1 : exoribonucléase II
 EC 3.1.13.2 : exoribonucléase H
 EC 3.1.13.3 : oligonucléotidase
 EC 3.1.13.4 : poly(A)-ribonucléase spécifique
 EC 3.1.13.5 : ribonucléase D
-EC 3.1.14 : Exoribonucléases productrices de 3'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>EC 3.1.14 : Exoribonucléases productrices de 3'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.14
 EC 3.1.14.1 : ribonucléase de levure
-EC 3.1.15 : Exonucléases actives à la fois sur l'ARN et sur l'ADN et produisant des 5'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>EC 3.1.15 : Exonucléases actives à la fois sur l'ARN et sur l'ADN et produisant des 5'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.15
 EC 3.1.15.1 : exonucléase de venin
-EC 3.1.16 : Exonucléases actives à la fois sur l'ARN et sur l'ADN et produisant des 3'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>EC 3.1.16 : Exonucléases actives à la fois sur l'ARN et sur l'ADN et produisant des 3'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.16
 EC 3.1.16.1 : exonucléase de la rate
-EC 3.1.21 : Endodésoxyribonucléases productrices de 5'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>EC 3.1.21 : Endodésoxyribonucléases productrices de 5'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.21
 EC 3.1.21.1 : désoxyribonucléase I
 EC 3.1.21.2 : désoxyribonucléase IV (induite pas le phage T4)
@@ -848,19 +1334,162 @@
 EC 3.1.21.5 : désoxyribonucléase à site spécifique de type III
 EC 3.1.21.6 : endodésoxyribonucléase à préférence CC
 EC 3.1.21.7 : désoxyribonucléase V
-EC 3.1.22 : Endodésoxyribonucléases productrices de 3'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>EC 3.1.22 : Endodésoxyribonucléases productrices de 3'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.22
 EC 3.1.22.1 : désoxyribonucléase II
 EC 3.1.22.2 : désoxyribonucléase K1 (Aspergillus)
 EC 3.1.22.3 : supprimée (maintenant EC 3.1.21.7)
 EC 3.1.22.4 : endodésoxyribonucléase spécifique de jonction
 EC 3.1.22.5 : désoxyribonucléase X
-EC 3.1.23 &amp; EC 3.1.24
-Endodésoxyribonucléases spécifiques incluses aujourd'hui dans EC 3.1.21.3, EC 3.1.21.4 et EC 3.1.21.5.
-EC 3.1.25 : Endodésoxyribonucléases spécifiques des bases abîmées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>EC 3.1.23 &amp; EC 3.1.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endodésoxyribonucléases spécifiques incluses aujourd'hui dans EC 3.1.21.3, EC 3.1.21.4 et EC 3.1.21.5.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>EC 3.1.25 : Endodésoxyribonucléases spécifiques des bases abîmées</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.25
 EC 3.1.25.1 : endodésoxyribonucléase à dimère pyrimidine
-EC 3.1.26 : Endoribonucléases productrices de 5'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>EC 3.1.26 : Endoribonucléases productrices de 5'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.26
 EC 3.1.26.1 : ribonucléase de Physarum polycephalum
 EC 3.1.26.2 : ribonucléase alpha
@@ -875,7 +1504,43 @@
 EC 3.1.26.11 : tRNase Z
 EC 3.1.26.12 : ribonucléase E
 EC 3.1.26.13 : ribonucléase H rétrovirale
-EC 3.1.27 : Endoribonucléases productrices de 3'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EC 3.1.27 : Endoribonucléases productrices de 3'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.27
 EC 3.1.27.1 : ribonucléase T2
 EC 3.1.27.2 : ribonucléase de Bacillus subtilis
@@ -887,11 +1552,83 @@
 EC 3.1.27.8 : ribonucléase V
 EC 3.1.27.9 : endonucléase à intron ARN de transfert
 EC 3.1.27.10 : endonucléase à ARN ribosomique
-EC 3.1.30 : Endoribonucléases actives à la fois sur l'ARN et sur l'ADN et productrices de 5'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>EC 3.1.30 : Endoribonucléases actives à la fois sur l'ARN et sur l'ADN et productrices de 5'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.30
 EC 3.1.30.1 : nucléase S1 de Aspergillus
 EC 3.1.30.2 : nucléase de Serratia marcescens
-EC 3.1.31 : Endoribonucléases actives à la fois sur l'ARN et sur l'ADN et productrices de 3'-phosphomonoesters
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EC_3.1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>EC 3.1.31 : Endoribonucléases actives à la fois sur l'ARN et sur l'ADN et productrices de 3'-phosphomonoesters</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.1.31
 EC 3.1.31.1 : nucléase micrococcale
 </t>
